--- a/biology/Botanique/Vesce_de_Narbonne/Vesce_de_Narbonne.xlsx
+++ b/biology/Botanique/Vesce_de_Narbonne/Vesce_de_Narbonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vicia narbonensis
 Vicia narbonensis, la vesce de Narbonne, est une espèce de plantes alimentaires annuelles de 20-50 cm de la famille des Fabaceae cultivée dans la région méditerranéenne et au Moyen-Orient (Espagne, Turquie, Irak, Syrie) dont elle est originaire (d'où son nom anglais de moor's pea).
@@ -514,11 +526,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vicia narbonensis L. est synonyme de Vicia serratifolia Jacq. 1778 - f. integrifolia Beck[2]. Jean-Baptiste de Lamarck avait réuni ces deux taxons dans sa Flore française[3].
-Complexe d'espèces
-Selon certains auteurs, Vicia narbonensis et ses espèces proches, qui présentent de nombreuses similitudes morphologiques, forment un complexe d'espèces, Vicia narbonensis sensu lato. Selon le schéma présenté ci-après[4]. Ce complexe qui englobe sept espèces forme la section B du genre Vicia, les sections A (Vicia bithynica L.) et C (Vicia faba L.) étant monospécifiques[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vicia narbonensis L. est synonyme de Vicia serratifolia Jacq. 1778 - f. integrifolia Beck. Jean-Baptiste de Lamarck avait réuni ces deux taxons dans sa Flore française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vesce_de_Narbonne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_de_Narbonne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Complexe d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon certains auteurs, Vicia narbonensis et ses espèces proches, qui présentent de nombreuses similitudes morphologiques, forment un complexe d'espèces, Vicia narbonensis sensu lato. Selon le schéma présenté ci-après. Ce complexe qui englobe sept espèces forme la section B du genre Vicia, les sections A (Vicia bithynica L.) et C (Vicia faba L.) étant monospécifiques :
 Section B Narbonensis (Radzhi) Maxted
 Série A Rhombocarpae Maxted
 Vicia eristalioides Maxted
@@ -538,14 +587,82 @@
 Vicia narbonensis var. affinis Kornhuber ex Asch. &amp; Schweinf.
 Vicia narbonensis var. aegyptiaca Kornhuber ex Asch. &amp; Schweinf.
 Vicia narbonensis var. narbonensis
-Vicia hyaeniscyamus Mout
-Synonymes
-Selon The Plant List            (8 août 2019)[1] :
+Vicia hyaeniscyamus Mout</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vesce_de_Narbonne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_de_Narbonne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (8 août 2019) :
 Bona narbonensis (L.) Medik.
 Vicia narbonensis var. narbonensis
-Vicia serratifolia sensu auct.
-Liste des variétés
-Selon Catalogue of Life                                   (8 août 2019)[6] :
+Vicia serratifolia sensu auct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vesce_de_Narbonne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_de_Narbonne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2019) :
 Vicia narbonensis var. aegyptiaca Asch. &amp; Schweinf.
 Vicia narbonensis var. affinis Asch. &amp; Schweinf.
 Vicia narbonensis var. jordanica H.I.Schaf.
@@ -554,34 +671,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Vesce_de_Narbonne</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vesce_de_Narbonne</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Alimentation animale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Rembert Dodoens (1583) note : « Si la graine est mâchée il remplit la bouche pleine de la matière puante ». Rudolf Jakob Camerarius donne un goût de la graine « similaire à celui de fèves ». Charles Lawson (1836) mentionne sa culture en Allemagne comme substitut de la vesce commune (V. sativa) à croissance rapide et son utilisation comme fourrage au goût fort de fève. Utilisée comme fourrage de vaches laitières elle donne un goût particulier au lait, les porcs n’apprécient pas les graines. Dans l'Alentejo portugais, elle est traditionnellement cultivée pour nourrir les pigeons.
-Les études disponibles indiquent que la plante est  tolérante au froid et à la sécheresse, indifférente à la qualité du sol, résisterait mieux que V. faba aux ravageurs et que son rendement est élevé. Elle constituerait  donc un fourrage adapté pour la production de ruminants dans le climat semi-aride si son goût était amélioré. Longtemps délaissé, le genre Vicia est en cours de séquençage[7].
+Les études disponibles indiquent que la plante est  tolérante au froid et à la sécheresse, indifférente à la qualité du sol, résisterait mieux que V. faba aux ravageurs et que son rendement est élevé. Elle constituerait  donc un fourrage adapté pour la production de ruminants dans le climat semi-aride si son goût était amélioré. Longtemps délaissé, le genre Vicia est en cours de séquençage.
 </t>
         </is>
       </c>
